--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.972785720942909</v>
+        <v>13.972785663131333</v>
       </c>
       <c r="C2">
-        <v>26.836223317122744</v>
+        <v>26.836223279610408</v>
       </c>
       <c r="D2">
-        <v>5.5899947192931734</v>
+        <v>5.5899946638982101</v>
       </c>
       <c r="E2">
-        <v>28.915557868878722</v>
+        <v>28.915557821257181</v>
       </c>
       <c r="F2">
-        <v>-15.881785379801727</v>
+        <v>-15.881785394727558</v>
       </c>
       <c r="G2">
-        <v>24.252236622903155</v>
+        <v>24.252236577422281</v>
       </c>
       <c r="H2">
-        <v>25.185829317070841</v>
+        <v>25.18582927513711</v>
       </c>
       <c r="I2">
-        <v>21.473276519867056</v>
+        <v>21.473276477289176</v>
       </c>
       <c r="J2">
-        <v>27.416134207709604</v>
+        <v>27.416134160944353</v>
       </c>
       <c r="K2">
-        <v>39.758509985536762</v>
+        <v>39.758509940572253</v>
       </c>
       <c r="L2">
-        <v>29.645264628127336</v>
+        <v>29.645264586612939</v>
       </c>
       <c r="N2">
-        <v>34.108673777435456</v>
+        <v>34.108673715785017</v>
       </c>
       <c r="O2">
-        <v>12.99889295386032</v>
+        <v>12.998892913934412</v>
       </c>
       <c r="P2">
-        <v>21.435610938029754</v>
+        <v>21.435610877502654</v>
       </c>
       <c r="Q2">
-        <v>39.462071416921731</v>
+        <v>39.462071367648946</v>
       </c>
       <c r="S2">
-        <v>20.683760928500078</v>
+        <v>20.683760911030788</v>
       </c>
       <c r="V2">
-        <v>32.59374588342132</v>
+        <v>32.593745831469732</v>
       </c>
       <c r="W2">
-        <v>7.2811567566949407</v>
+        <v>7.2811567151427425</v>
       </c>
       <c r="X2">
-        <v>34.527499086851662</v>
+        <v>34.527499049646281</v>
       </c>
       <c r="AA2">
-        <v>28.924575548539622</v>
+        <v>28.924575505155985</v>
       </c>
       <c r="AB2">
-        <v>29.815905978648061</v>
+        <v>29.815905946017097</v>
       </c>
       <c r="AC2">
-        <v>20.777582803394665</v>
+        <v>20.777582759956971</v>
       </c>
       <c r="AD2">
-        <v>28.393922744786494</v>
+        <v>28.393922672867689</v>
       </c>
       <c r="AE2">
-        <v>36.779122951575118</v>
+        <v>36.779122945420681</v>
       </c>
       <c r="AF2">
-        <v>30.331635329186497</v>
+        <v>30.331635309448984</v>
       </c>
       <c r="AG2">
-        <v>24.197529217014107</v>
+        <v>24.197529160615545</v>
       </c>
       <c r="AH2">
-        <v>26.071547232269154</v>
+        <v>26.071547183055827</v>
       </c>
       <c r="AI2">
-        <v>3.8603079438592545</v>
+        <v>3.8603079148785469</v>
       </c>
       <c r="AJ2">
-        <v>21.137251149101644</v>
+        <v>21.137251107188376</v>
       </c>
       <c r="AK2">
-        <v>28.122953618137444</v>
+        <v>28.122953580347485</v>
       </c>
       <c r="AL2">
-        <v>42.879820761927931</v>
+        <v>42.879820696551974</v>
       </c>
       <c r="AM2">
-        <v>27.339797522099133</v>
+        <v>27.339797465529188</v>
       </c>
       <c r="AN2">
-        <v>26.973766783258213</v>
+        <v>26.973766724782706</v>
       </c>
       <c r="AO2">
-        <v>37.336085237099581</v>
+        <v>37.336085178578145</v>
       </c>
       <c r="AQ2">
-        <v>27.480116799038115</v>
+        <v>27.480116759324574</v>
       </c>
       <c r="AR2">
-        <v>31.418959745466623</v>
+        <v>31.418959742495815</v>
       </c>
       <c r="AS2">
-        <v>35.286220741150998</v>
+        <v>35.286220705078165</v>
       </c>
       <c r="AU2">
-        <v>27.23105646749309</v>
+        <v>27.231056432375681</v>
       </c>
       <c r="AV2">
-        <v>17.637905551196013</v>
+        <v>17.637905479706717</v>
       </c>
       <c r="AW2">
-        <v>29.882748161196929</v>
+        <v>29.882748115552744</v>
       </c>
       <c r="AX2">
-        <v>34.264448662301589</v>
+        <v>34.264448618936683</v>
       </c>
       <c r="AY2">
-        <v>31.713606198395809</v>
+        <v>31.713606144043041</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.926014476560624</v>
+        <v>17.926014427179098</v>
       </c>
       <c r="C3">
-        <v>25.961458846770427</v>
+        <v>25.961458812424041</v>
       </c>
       <c r="E3">
-        <v>41.239947977257742</v>
+        <v>41.23994796739305</v>
       </c>
       <c r="F3">
-        <v>5.5021846033715178</v>
+        <v>5.5021845683296533</v>
       </c>
       <c r="G3">
-        <v>27.749597382844996</v>
+        <v>27.749597355866825</v>
       </c>
       <c r="H3">
-        <v>26.440113901027757</v>
+        <v>26.440113848440831</v>
       </c>
       <c r="J3">
-        <v>31.391893029065159</v>
+        <v>31.39189298414351</v>
       </c>
       <c r="K3">
-        <v>2.0079543414688032</v>
+        <v>2.0079542932820686</v>
       </c>
       <c r="L3">
-        <v>35.391285739771774</v>
+        <v>35.391285709489807</v>
       </c>
       <c r="M3">
-        <v>28.252857792098212</v>
+        <v>28.252698520017361</v>
       </c>
       <c r="N3">
-        <v>30.090399420616677</v>
+        <v>30.090399375069296</v>
       </c>
       <c r="P3">
-        <v>64.199757298275927</v>
+        <v>64.199757253982284</v>
       </c>
       <c r="Q3">
-        <v>25.567082284433127</v>
+        <v>25.567082230628557</v>
       </c>
       <c r="R3">
-        <v>19.044140921190888</v>
+        <v>19.044140860281061</v>
       </c>
       <c r="W3">
-        <v>23.369953361349644</v>
+        <v>23.369953289802311</v>
       </c>
       <c r="AA3">
-        <v>32.118826993931805</v>
+        <v>32.118826918553339</v>
       </c>
       <c r="AB3">
-        <v>25.585338607976723</v>
+        <v>25.58533858090675</v>
       </c>
       <c r="AC3">
-        <v>34.157494399907108</v>
+        <v>34.157494353369628</v>
       </c>
       <c r="AD3">
-        <v>38.494608217254751</v>
+        <v>38.494608171222097</v>
       </c>
       <c r="AE3">
-        <v>31.944163415753081</v>
+        <v>31.944163398572385</v>
       </c>
       <c r="AF3">
-        <v>32.175446257656859</v>
+        <v>32.175446246706599</v>
       </c>
       <c r="AG3">
-        <v>23.012967495301211</v>
+        <v>23.012967452271482</v>
       </c>
       <c r="AH3">
-        <v>30.503330113582706</v>
+        <v>30.503330088487701</v>
       </c>
       <c r="AI3">
-        <v>31.973544392508586</v>
+        <v>31.973544345038249</v>
       </c>
       <c r="AJ3">
-        <v>37.429378375672627</v>
+        <v>37.429378322348043</v>
       </c>
       <c r="AK3">
-        <v>31.847537260267586</v>
+        <v>31.847537219877495</v>
       </c>
       <c r="AL3">
-        <v>37.664044630132651</v>
+        <v>37.664044583566806</v>
       </c>
       <c r="AM3">
-        <v>25.22091447165559</v>
+        <v>25.220914397090269</v>
       </c>
       <c r="AN3">
-        <v>14.132841769906207</v>
+        <v>14.132841718404819</v>
       </c>
       <c r="AO3">
-        <v>15.216230031888159</v>
+        <v>15.216229976266021</v>
       </c>
       <c r="AP3">
-        <v>37.539798723626234</v>
+        <v>37.539798680358558</v>
       </c>
       <c r="AQ3">
-        <v>31.09384661186067</v>
+        <v>31.093846564544037</v>
       </c>
       <c r="AS3">
-        <v>26.478509460256305</v>
+        <v>26.478509418731448</v>
       </c>
       <c r="AT3">
-        <v>26.375716470296226</v>
+        <v>26.37571640704985</v>
       </c>
       <c r="AU3">
-        <v>33.900266143525982</v>
+        <v>33.900266088100921</v>
       </c>
       <c r="AV3">
-        <v>28.296660526039545</v>
+        <v>28.296660431886835</v>
       </c>
       <c r="AW3">
-        <v>31.67035985165171</v>
+        <v>31.670359803476913</v>
       </c>
       <c r="AX3">
-        <v>62.345617045037613</v>
+        <v>62.3456170137095</v>
       </c>
       <c r="AY3">
-        <v>46.650014536454421</v>
+        <v>46.650014505489708</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,253 +401,265 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.972785663131333</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>26.836223279610408</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5.5899946638982101</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>28.915557821257181</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.881785394727558</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>24.252236577422281</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>25.18582927513711</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21.473276477289176</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>27.416134160944353</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>39.758509940572253</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>29.645264586612939</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>34.108673715785017</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.998892913934412</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>21.435610877502654</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>39.462071367648946</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.683760911030788</v>
+        <v>20.68372758103078</v>
       </c>
       <c r="V2">
-        <v>32.593745831469732</v>
+        <v>32.593712501469781</v>
       </c>
       <c r="W2">
-        <v>7.2811567151427425</v>
+        <v>7.2811233851427914</v>
       </c>
       <c r="X2">
-        <v>34.527499049646281</v>
+        <v>34.527532379646289</v>
       </c>
       <c r="AA2">
-        <v>28.924575505155985</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>29.815905946017097</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>20.777582759956971</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>28.393922672867689</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>36.779122945420681</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>30.331635309448984</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>24.197529160615545</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>26.071547183055827</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.8603079148785469</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>21.137251107188376</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>28.122953580347485</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>42.879820696551974</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>27.339797465529188</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>26.973766724782706</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>37.336085178578145</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>27.480116759324574</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>31.418959742495815</v>
+        <v>31.418926412495807</v>
       </c>
       <c r="AS2">
-        <v>35.286220705078165</v>
+        <v>35.286187375078157</v>
       </c>
       <c r="AU2">
-        <v>27.231056432375681</v>
+        <v>27.231023102375673</v>
       </c>
       <c r="AV2">
         <v>17.637905479706717</v>
       </c>
       <c r="AW2">
-        <v>29.882748115552744</v>
+        <v>29.882781445552752</v>
       </c>
       <c r="AX2">
-        <v>34.264448618936683</v>
+        <v>34.264481948936663</v>
       </c>
       <c r="AY2">
         <v>31.713606144043041</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>17.926014427179098</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>25.961458812424041</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>41.23994796739305</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.5021845683296533</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.749597355866825</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>26.440113848440831</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>31.39189298414351</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.0079542932820686</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>35.391285709489807</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>28.252698520017361</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>30.090399375069296</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>64.199757253982284</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>25.567082230628557</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>19.044140860281061</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>23.369953289802311</v>
+        <v>23.369919959802303</v>
       </c>
       <c r="AA3">
-        <v>32.118826918553339</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>25.58533858090675</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>34.157494353369628</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>38.494608171222097</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>31.944163398572385</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>32.175446246706599</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>23.012967452271482</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>30.503330088487701</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>31.973544345038249</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>37.429378322348043</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>31.847537219877495</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>37.664044583566806</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>25.220914397090269</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>14.132841718404819</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>15.216229976266021</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>37.539798680358558</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>31.093846564544037</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>26.478509418731448</v>
       </c>
       <c r="AT3">
-        <v>26.37571640704985</v>
+        <v>26.375683077049842</v>
       </c>
       <c r="AU3">
-        <v>33.900266088100921</v>
+        <v>33.900232758100913</v>
       </c>
       <c r="AV3">
-        <v>28.296660431886835</v>
+        <v>28.2966937618869</v>
       </c>
       <c r="AW3">
-        <v>31.670359803476913</v>
+        <v>31.670326473476905</v>
       </c>
       <c r="AX3">
-        <v>62.3456170137095</v>
+        <v>62.34565034370948</v>
       </c>
       <c r="AY3">
         <v>46.650014505489708</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.972752390942901</v>
-      </c>
-      <c r="C2">
-        <v>28.372923317122741</v>
+        <v>12.99892624393442</v>
       </c>
       <c r="D2">
-        <v>5.5899947192931734</v>
+        <v>26.973800054782714</v>
       </c>
       <c r="E2">
-        <v>36.228924538878744</v>
+        <v>27.480116759324574</v>
       </c>
       <c r="F2">
         <v>-15.881818709801735</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>17.926014476560624</v>
-      </c>
       <c r="C3">
-        <v>32.601425516770405</v>
+        <v>19.04410753028111</v>
+      </c>
+      <c r="D3">
+        <v>14.132875048404799</v>
       </c>
       <c r="E3">
-        <v>41.239914647257734</v>
+        <v>31.265119917477023</v>
       </c>
       <c r="F3">
         <v>5.5022179333715258</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.972752390942901</v>
+        <v>-2.0313596142149777</v>
       </c>
       <c r="C2">
-        <v>28.372923317122741</v>
+        <v>12.99892624393442</v>
       </c>
       <c r="D2">
-        <v>5.5899947192931734</v>
+        <v>18.036464135529172</v>
       </c>
       <c r="E2">
-        <v>36.228924538878744</v>
+        <v>26.973800054782714</v>
       </c>
       <c r="F2">
         <v>-15.881818709801735</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.926014476560624</v>
-      </c>
-      <c r="C3">
-        <v>32.601425516770405</v>
+        <v>-20.409633954930769</v>
+      </c>
+      <c r="D3">
+        <v>38.727581067090341</v>
       </c>
       <c r="E3">
-        <v>41.239914647257734</v>
+        <v>14.132875048404799</v>
       </c>
       <c r="F3">
         <v>5.5022179333715258</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.972752333131325</v>
+      </c>
+      <c r="C2">
+        <v>28.372923279610404</v>
+      </c>
+      <c r="D2">
+        <v>5.5899946638982101</v>
+      </c>
+      <c r="E2">
+        <v>36.228924491257203</v>
+      </c>
+      <c r="F2">
+        <v>-15.881818724727566</v>
+      </c>
+      <c r="G2">
+        <v>24.252203247422301</v>
+      </c>
+      <c r="H2">
+        <v>25.185862605137117</v>
+      </c>
+      <c r="I2">
+        <v>21.473243147289168</v>
+      </c>
+      <c r="J2">
+        <v>27.416167490944304</v>
+      </c>
+      <c r="K2">
+        <v>39.758543270572318</v>
+      </c>
+      <c r="L2">
+        <v>29.645231256612874</v>
+      </c>
+      <c r="N2">
         <v>-2.0313596142149777</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>12.99892624393442</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>21.435610877502654</v>
+      </c>
+      <c r="Q2">
+        <v>71.118704697648923</v>
+      </c>
+      <c r="S2">
+        <v>20.68372758103078</v>
+      </c>
+      <c r="V2">
+        <v>32.593712501469781</v>
+      </c>
+      <c r="W2">
+        <v>7.2811233851427914</v>
+      </c>
+      <c r="X2">
+        <v>34.527532379646289</v>
+      </c>
+      <c r="AA2">
+        <v>28.924608835155993</v>
+      </c>
+      <c r="AB2">
+        <v>0.73257261601713708</v>
+      </c>
+      <c r="AC2">
+        <v>20.77761608995695</v>
+      </c>
+      <c r="AD2">
+        <v>20.847256002867709</v>
+      </c>
+      <c r="AE2">
+        <v>36.779122945420681</v>
+      </c>
+      <c r="AF2">
+        <v>30.331601979449033</v>
+      </c>
+      <c r="AG2">
+        <v>24.197529160615545</v>
+      </c>
+      <c r="AH2">
+        <v>26.071513853055876</v>
+      </c>
+      <c r="AI2">
+        <v>3.8602745848785389</v>
+      </c>
+      <c r="AJ2">
+        <v>21.137284437188328</v>
+      </c>
+      <c r="AK2">
+        <v>28.122986910347493</v>
+      </c>
+      <c r="AL2">
+        <v>42.879820696551974</v>
+      </c>
+      <c r="AM2">
         <v>18.036464135529172</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>26.973800054782714</v>
       </c>
-      <c r="F2">
-        <v>-15.881818709801735</v>
-      </c>
-      <c r="G2">
-        <v>24.252203292903175</v>
-      </c>
-      <c r="H2">
-        <v>25.185862647070849</v>
-      </c>
-      <c r="I2">
-        <v>21.473243189867048</v>
-      </c>
-      <c r="J2">
-        <v>27.416167537709555</v>
-      </c>
-      <c r="K2">
-        <v>39.758543315536826</v>
-      </c>
-      <c r="L2">
-        <v>29.645231298127271</v>
-      </c>
-      <c r="N2">
-        <v>-2.0313595525645383</v>
-      </c>
-      <c r="O2">
-        <v>12.998926283860328</v>
-      </c>
-      <c r="P2">
-        <v>21.435610938029754</v>
-      </c>
-      <c r="Q2">
-        <v>71.118704746921708</v>
-      </c>
-      <c r="S2">
-        <v>20.68372759850007</v>
-      </c>
-      <c r="V2">
-        <v>32.593712553421369</v>
-      </c>
-      <c r="W2">
-        <v>7.2811234266949896</v>
-      </c>
-      <c r="X2">
-        <v>34.52753241685167</v>
-      </c>
-      <c r="AA2">
-        <v>28.92460887853963</v>
-      </c>
-      <c r="AB2">
-        <v>0.73257264864810168</v>
-      </c>
-      <c r="AC2">
-        <v>20.777616133394645</v>
-      </c>
-      <c r="AD2">
-        <v>20.847256074786515</v>
-      </c>
-      <c r="AE2">
-        <v>36.779122951575118</v>
-      </c>
-      <c r="AF2">
-        <v>30.331601999186546</v>
-      </c>
-      <c r="AG2">
-        <v>24.197529217014107</v>
-      </c>
-      <c r="AH2">
-        <v>26.071513902269203</v>
-      </c>
-      <c r="AI2">
-        <v>3.8602746138592465</v>
-      </c>
-      <c r="AJ2">
-        <v>21.137284479101595</v>
-      </c>
-      <c r="AK2">
-        <v>28.122986948137452</v>
-      </c>
-      <c r="AL2">
-        <v>42.879820761927931</v>
-      </c>
-      <c r="AM2">
-        <v>18.036464192099118</v>
-      </c>
-      <c r="AN2">
-        <v>26.973800113258221</v>
-      </c>
       <c r="AO2">
-        <v>37.336085237099581</v>
+        <v>37.336085178578145</v>
       </c>
       <c r="AQ2">
-        <v>27.480116799038115</v>
+        <v>27.480116759324574</v>
       </c>
       <c r="AR2">
-        <v>31.418926415466615</v>
+        <v>31.418926412495807</v>
       </c>
       <c r="AS2">
-        <v>35.286187411150991</v>
+        <v>35.286187375078157</v>
       </c>
       <c r="AU2">
-        <v>27.231023137493082</v>
+        <v>27.231023102375673</v>
       </c>
       <c r="AV2">
-        <v>17.637905551196013</v>
+        <v>17.637905479706717</v>
       </c>
       <c r="AW2">
-        <v>29.882781491196937</v>
+        <v>29.882781445552752</v>
       </c>
       <c r="AX2">
-        <v>34.264481992301569</v>
+        <v>34.264481948936663</v>
       </c>
       <c r="AY2">
-        <v>31.713606198395809</v>
+        <v>31.713606144043041</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>17.926014427179098</v>
+      </c>
+      <c r="C3">
+        <v>32.60142548242402</v>
+      </c>
+      <c r="E3">
+        <v>41.239914637393042</v>
+      </c>
+      <c r="F3">
+        <v>5.5022178983296612</v>
+      </c>
+      <c r="G3">
+        <v>27.749564025866817</v>
+      </c>
+      <c r="H3">
+        <v>26.440147178440782</v>
+      </c>
+      <c r="J3">
+        <v>33.635192984143487</v>
+      </c>
+      <c r="K3">
+        <v>2.0079542932820686</v>
+      </c>
+      <c r="L3">
+        <v>35.391319039489872</v>
+      </c>
+      <c r="M3">
+        <v>28.252698520017361</v>
+      </c>
+      <c r="N3">
         <v>-20.409633954930769</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>64.199723923982276</v>
+      </c>
+      <c r="Q3">
+        <v>25.567115560628508</v>
+      </c>
+      <c r="R3">
+        <v>19.04410753028111</v>
+      </c>
+      <c r="W3">
+        <v>23.082114140798637</v>
+      </c>
+      <c r="AA3">
+        <v>32.118793588553331</v>
+      </c>
+      <c r="AB3">
+        <v>23.022038580906724</v>
+      </c>
+      <c r="AC3">
+        <v>34.157527683369636</v>
+      </c>
+      <c r="AD3">
+        <v>38.494608171222097</v>
+      </c>
+      <c r="AE3">
+        <v>31.944130068572406</v>
+      </c>
+      <c r="AF3">
+        <v>32.175412916706591</v>
+      </c>
+      <c r="AG3">
+        <v>23.012967452271482</v>
+      </c>
+      <c r="AH3">
+        <v>30.34039438068902</v>
+      </c>
+      <c r="AI3">
+        <v>33.546911015038177</v>
+      </c>
+      <c r="AJ3">
+        <v>37.429344992348092</v>
+      </c>
+      <c r="AK3">
+        <v>31.847570549877446</v>
+      </c>
+      <c r="AL3">
+        <v>37.664044583566806</v>
+      </c>
+      <c r="AM3">
         <v>38.727581067090341</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>14.132875048404799</v>
       </c>
-      <c r="F3">
-        <v>5.5022179333715258</v>
-      </c>
-      <c r="G3">
-        <v>27.749564052844988</v>
-      </c>
-      <c r="H3">
-        <v>26.440147231027709</v>
-      </c>
-      <c r="J3">
-        <v>33.635193029065135</v>
-      </c>
-      <c r="K3">
-        <v>2.0079543414688032</v>
-      </c>
-      <c r="L3">
-        <v>35.391319069771839</v>
-      </c>
-      <c r="M3">
-        <v>28.252857792098212</v>
-      </c>
-      <c r="N3">
-        <v>-20.409633909383388</v>
-      </c>
-      <c r="P3">
-        <v>64.199723968275919</v>
-      </c>
-      <c r="Q3">
-        <v>25.567115614433078</v>
-      </c>
-      <c r="R3">
-        <v>19.044107591190937</v>
-      </c>
-      <c r="W3">
-        <v>23.08211421244846</v>
-      </c>
-      <c r="AA3">
-        <v>32.118793663931797</v>
-      </c>
-      <c r="AB3">
-        <v>23.022038607976697</v>
-      </c>
-      <c r="AC3">
-        <v>34.157527729907116</v>
-      </c>
-      <c r="AD3">
-        <v>38.494608217254751</v>
-      </c>
-      <c r="AE3">
-        <v>31.944130085753102</v>
-      </c>
-      <c r="AF3">
-        <v>32.175412927656851</v>
-      </c>
-      <c r="AG3">
-        <v>23.012967495301211</v>
-      </c>
-      <c r="AH3">
-        <v>30.340394400754235</v>
-      </c>
-      <c r="AI3">
-        <v>33.546911062508514</v>
-      </c>
-      <c r="AJ3">
-        <v>37.429345045672676</v>
-      </c>
-      <c r="AK3">
-        <v>31.847570590267537</v>
-      </c>
-      <c r="AL3">
-        <v>37.664044630132651</v>
-      </c>
-      <c r="AM3">
-        <v>38.727581141655662</v>
-      </c>
-      <c r="AN3">
-        <v>14.132875099906187</v>
-      </c>
       <c r="AO3">
-        <v>15.216230031888159</v>
+        <v>15.216229976266021</v>
       </c>
       <c r="AP3">
-        <v>37.539832053626185</v>
+        <v>37.539832010358509</v>
       </c>
       <c r="AQ3">
-        <v>31.265119972165394</v>
+        <v>31.265119917477023</v>
       </c>
       <c r="AS3">
-        <v>26.478509460256305</v>
+        <v>26.478509418731448</v>
       </c>
       <c r="AT3">
-        <v>26.375683140296218</v>
+        <v>26.375683077049842</v>
       </c>
       <c r="AU3">
-        <v>33.900232813525975</v>
+        <v>33.900232758100913</v>
       </c>
       <c r="AV3">
-        <v>28.29669385603961</v>
+        <v>28.2966937618869</v>
       </c>
       <c r="AW3">
-        <v>31.670326521651702</v>
+        <v>31.670326473476905</v>
       </c>
       <c r="AX3">
-        <v>62.345650375037593</v>
+        <v>62.34565034370948</v>
       </c>
       <c r="AY3">
-        <v>46.650014536454421</v>
+        <v>46.650014505489708</v>
       </c>
     </row>
   </sheetData>
